--- a/week6/day3/ExcelReadWriteCell/Users.xlsx
+++ b/week6/day3/ExcelReadWriteCell/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stuff\Revature\sy-practice-training\week5\day8\ExcelReadWriteCell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stuff\Revature\sy-practice-training\week6\day3\ExcelReadWriteCell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3801D13-C4C9-4213-9D97-7D0DED44D55D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC558B-60FD-4A1C-B18C-FB6420761D86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOCK_DATA" sheetId="1" r:id="rId1"/>
@@ -12635,7 +12635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A975" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
